--- a/Team-Data/2014-15/2-3-2014-15.xlsx
+++ b/Team-Data/2014-15/2-3-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -771,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="AM2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN2" t="n">
         <v>1</v>
@@ -780,13 +847,13 @@
         <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
         <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
         <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>0.362</v>
+        <v>0.348</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -866,10 +933,10 @@
         <v>39.3</v>
       </c>
       <c r="J3" t="n">
-        <v>87.40000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L3" t="n">
         <v>7.5</v>
@@ -878,64 +945,64 @@
         <v>23</v>
       </c>
       <c r="N3" t="n">
-        <v>0.326</v>
+        <v>0.328</v>
       </c>
       <c r="O3" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="P3" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T3" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U3" t="n">
         <v>24.5</v>
       </c>
       <c r="V3" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AA3" t="n">
         <v>18</v>
       </c>
       <c r="AB3" t="n">
-        <v>101</v>
+        <v>100.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.9</v>
+        <v>-2.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF3" t="n">
         <v>22</v>
       </c>
-      <c r="AF3" t="n">
-        <v>20</v>
-      </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH3" t="n">
         <v>10</v>
@@ -950,7 +1017,7 @@
         <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM3" t="n">
         <v>13</v>
@@ -962,7 +1029,7 @@
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ3" t="n">
         <v>17</v>
@@ -971,7 +1038,7 @@
         <v>20</v>
       </c>
       <c r="AS3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT3" t="n">
         <v>16</v>
@@ -980,28 +1047,28 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
       </c>
       <c r="AX3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1120,7 +1187,7 @@
         <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>23</v>
@@ -1132,13 +1199,13 @@
         <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>18</v>
       </c>
       <c r="AN4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
         <v>23</v>
@@ -1153,16 +1220,16 @@
         <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="n">
         <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW4" t="n">
         <v>21</v>
@@ -1177,10 +1244,10 @@
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC4" t="n">
         <v>25</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -1290,22 +1357,22 @@
         <v>-2.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
         <v>3</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ5" t="n">
         <v>9</v>
@@ -1320,10 +1387,10 @@
         <v>26</v>
       </c>
       <c r="AN5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
         <v>12</v>
@@ -1338,7 +1405,7 @@
         <v>6</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
         <v>26</v>
@@ -1353,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1581,7 @@
         <v>4</v>
       </c>
       <c r="AR6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1535,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>2.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
@@ -1669,7 +1736,7 @@
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>21</v>
@@ -1687,10 +1754,10 @@
         <v>13</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
         <v>15</v>
@@ -1699,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT7" t="n">
         <v>19</v>
@@ -1717,7 +1784,7 @@
         <v>25</v>
       </c>
       <c r="AY7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ7" t="n">
         <v>2</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -1758,34 +1825,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
         <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>0.673</v>
+        <v>0.66</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0.471</v>
       </c>
       <c r="L8" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="N8" t="n">
         <v>0.359</v>
@@ -1794,22 +1861,22 @@
         <v>16.8</v>
       </c>
       <c r="P8" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="R8" t="n">
         <v>10.6</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V8" t="n">
         <v>12.4</v>
@@ -1827,28 +1894,28 @@
         <v>19.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.9</v>
+        <v>106.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1875,13 +1942,13 @@
         <v>20</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
         <v>19</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
@@ -1896,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" t="n">
         <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" t="n">
-        <v>0.388</v>
+        <v>0.396</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J9" t="n">
         <v>86.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.432</v>
+        <v>0.433</v>
       </c>
       <c r="L9" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.321</v>
+        <v>0.32</v>
       </c>
       <c r="O9" t="n">
         <v>18.2</v>
@@ -1982,43 +2049,43 @@
         <v>0.736</v>
       </c>
       <c r="R9" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S9" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T9" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U9" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V9" t="n">
         <v>14.3</v>
       </c>
       <c r="W9" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="X9" t="n">
         <v>4.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB9" t="n">
         <v>100.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2030,7 +2097,7 @@
         <v>20</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>14</v>
@@ -2042,16 +2109,16 @@
         <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM9" t="n">
         <v>12</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>6</v>
@@ -2060,7 +2127,7 @@
         <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
@@ -2075,13 +2142,13 @@
         <v>12</v>
       </c>
       <c r="AW9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AX9" t="n">
         <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" t="n">
         <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>0.388</v>
+        <v>0.375</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J10" t="n">
-        <v>85.8</v>
+        <v>85.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="L10" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="N10" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O10" t="n">
         <v>16.3</v>
       </c>
       <c r="P10" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.704</v>
+        <v>0.702</v>
       </c>
       <c r="R10" t="n">
         <v>13</v>
@@ -2173,13 +2240,13 @@
         <v>45.7</v>
       </c>
       <c r="U10" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V10" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W10" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X10" t="n">
         <v>4.6</v>
@@ -2191,31 +2258,31 @@
         <v>18.9</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>98.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.8</v>
+        <v>-2.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
         <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ10" t="n">
         <v>6</v>
@@ -2227,13 +2294,13 @@
         <v>10</v>
       </c>
       <c r="AM10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN10" t="n">
         <v>19</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="n">
         <v>15</v>
@@ -2245,13 +2312,13 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT10" t="n">
         <v>3</v>
       </c>
       <c r="AU10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV10" t="n">
         <v>10</v>
@@ -2263,7 +2330,7 @@
         <v>16</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
         <v>6</v>
@@ -2275,7 +2342,7 @@
         <v>21</v>
       </c>
       <c r="BC10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="n">
         <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>0.826</v>
+        <v>0.822</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="J11" t="n">
-        <v>86.8</v>
+        <v>86.7</v>
       </c>
       <c r="K11" t="n">
         <v>0.483</v>
@@ -2331,37 +2398,37 @@
         <v>10.3</v>
       </c>
       <c r="M11" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.385</v>
+        <v>0.384</v>
       </c>
       <c r="O11" t="n">
         <v>16.8</v>
       </c>
       <c r="P11" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="R11" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S11" t="n">
         <v>34.6</v>
       </c>
       <c r="T11" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="V11" t="n">
         <v>15</v>
       </c>
       <c r="W11" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X11" t="n">
         <v>6.2</v>
@@ -2376,10 +2443,10 @@
         <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>111</v>
+        <v>110.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="AD11" t="n">
         <v>30</v>
@@ -2409,7 +2476,7 @@
         <v>2</v>
       </c>
       <c r="AM11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN11" t="n">
         <v>2</v>
@@ -2418,7 +2485,7 @@
         <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
         <v>7</v>
@@ -2427,7 +2494,7 @@
         <v>23</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>7</v>
@@ -2448,7 +2515,7 @@
         <v>4</v>
       </c>
       <c r="AZ11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA11" t="n">
         <v>26</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -2486,55 +2553,55 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" t="n">
         <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>0.681</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J12" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O12" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="R12" t="n">
         <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
         <v>21.3</v>
@@ -2543,31 +2610,31 @@
         <v>17.3</v>
       </c>
       <c r="W12" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X12" t="n">
         <v>4.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
@@ -2582,10 +2649,10 @@
         <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2597,25 +2664,25 @@
         <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS12" t="n">
         <v>22</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2627,19 +2694,19 @@
         <v>20</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -2758,13 +2825,13 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2785,7 +2852,7 @@
         <v>25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
         <v>15</v>
@@ -2812,7 +2879,7 @@
         <v>16</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
         <v>8</v>
@@ -2821,7 +2888,7 @@
         <v>26</v>
       </c>
       <c r="BC13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -2961,7 +3028,7 @@
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" t="n">
-        <v>0.277</v>
+        <v>0.271</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J15" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.434</v>
       </c>
       <c r="L15" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M15" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="N15" t="n">
         <v>0.348</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P15" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
       <c r="R15" t="n">
         <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T15" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="U15" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V15" t="n">
         <v>13.1</v>
@@ -3098,19 +3165,19 @@
         <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.40000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.4</v>
+        <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,28 +3189,28 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="n">
         <v>8</v>
       </c>
       <c r="AK15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL15" t="n">
         <v>24</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>23</v>
       </c>
       <c r="AM15" t="n">
         <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AP15" t="n">
         <v>7</v>
@@ -3155,10 +3222,10 @@
         <v>10</v>
       </c>
       <c r="AS15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
         <v>23</v>
@@ -3176,10 +3243,10 @@
         <v>9</v>
       </c>
       <c r="AZ15" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA15" t="n">
         <v>17</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>19</v>
       </c>
       <c r="BB15" t="n">
         <v>18</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>5.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,13 +3371,13 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
         <v>8</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>8</v>
@@ -3328,16 +3395,16 @@
         <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ16" t="n">
         <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT16" t="n">
         <v>15</v>
@@ -3346,7 +3413,7 @@
         <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW16" t="n">
         <v>8</v>
@@ -3364,7 +3431,7 @@
         <v>10</v>
       </c>
       <c r="BB16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC16" t="n">
         <v>5</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" t="n">
         <v>21</v>
       </c>
       <c r="F17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" t="n">
-        <v>0.438</v>
+        <v>0.447</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
@@ -3414,19 +3481,19 @@
         <v>34.1</v>
       </c>
       <c r="J17" t="n">
-        <v>74.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="K17" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L17" t="n">
         <v>6.9</v>
       </c>
       <c r="M17" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.338</v>
+        <v>0.337</v>
       </c>
       <c r="O17" t="n">
         <v>17.4</v>
@@ -3435,7 +3502,7 @@
         <v>23.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.738</v>
+        <v>0.74</v>
       </c>
       <c r="R17" t="n">
         <v>8.5</v>
@@ -3450,10 +3517,10 @@
         <v>19.9</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W17" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
         <v>4.2</v>
@@ -3462,19 +3529,19 @@
         <v>4.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB17" t="n">
         <v>92.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.8</v>
+        <v>-3.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,19 +3562,19 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
       </c>
       <c r="AM17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN17" t="n">
         <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>13</v>
@@ -3516,10 +3583,10 @@
         <v>24</v>
       </c>
       <c r="AR17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3528,7 +3595,7 @@
         <v>29</v>
       </c>
       <c r="AV17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW17" t="n">
         <v>11</v>
@@ -3540,7 +3607,7 @@
         <v>8</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3668,7 +3735,7 @@
         <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI18" t="n">
         <v>13</v>
@@ -3695,7 +3762,7 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
         <v>24</v>
@@ -3722,7 +3789,7 @@
         <v>11</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA18" t="n">
         <v>23</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
@@ -3850,7 +3917,7 @@
         <v>30</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>20</v>
@@ -3859,7 +3926,7 @@
         <v>12</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3880,7 +3947,7 @@
         <v>16</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
@@ -3898,10 +3965,10 @@
         <v>7</v>
       </c>
       <c r="AX19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F20" t="n">
         <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.532</v>
+        <v>0.542</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
@@ -3960,10 +4027,10 @@
         <v>38.3</v>
       </c>
       <c r="J20" t="n">
-        <v>83.59999999999999</v>
+        <v>84</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
         <v>6.6</v>
@@ -3972,64 +4039,64 @@
         <v>19</v>
       </c>
       <c r="N20" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O20" t="n">
         <v>17.3</v>
       </c>
       <c r="P20" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.768</v>
+        <v>0.76</v>
       </c>
       <c r="R20" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="S20" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T20" t="n">
-        <v>44</v>
+        <v>44.4</v>
       </c>
       <c r="U20" t="n">
         <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X20" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="Y20" t="n">
         <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
         <v>100.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
@@ -4038,10 +4105,10 @@
         <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
@@ -4050,43 +4117,43 @@
         <v>24</v>
       </c>
       <c r="AN20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT20" t="n">
         <v>9</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>10</v>
       </c>
       <c r="AU20" t="n">
         <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>23</v>
       </c>
       <c r="AX20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>6</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>7</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -4124,28 +4191,28 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="n">
-        <v>0.204</v>
+        <v>0.208</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L21" t="n">
         <v>7.4</v>
@@ -4157,10 +4224,10 @@
         <v>0.361</v>
       </c>
       <c r="O21" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="P21" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="Q21" t="n">
         <v>0.765</v>
@@ -4169,16 +4236,16 @@
         <v>10.6</v>
       </c>
       <c r="S21" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="T21" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U21" t="n">
         <v>21.5</v>
       </c>
       <c r="V21" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W21" t="n">
         <v>7.2</v>
@@ -4187,49 +4254,49 @@
         <v>4</v>
       </c>
       <c r="Y21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z21" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.8</v>
+        <v>92.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-7.6</v>
+        <v>-7.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF21" t="n">
         <v>28</v>
       </c>
       <c r="AG21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH21" t="n">
         <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
         <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
         <v>15</v>
       </c>
       <c r="AM21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN21" t="n">
         <v>8</v>
@@ -4241,13 +4308,13 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>0.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>16</v>
@@ -4396,10 +4463,10 @@
         <v>16</v>
       </c>
       <c r="AH22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI22" t="n">
         <v>16</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>18</v>
       </c>
       <c r="AJ22" t="n">
         <v>10</v>
@@ -4408,7 +4475,7 @@
         <v>23</v>
       </c>
       <c r="AL22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM22" t="n">
         <v>14</v>
@@ -4417,16 +4484,16 @@
         <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP22" t="n">
         <v>14</v>
       </c>
       <c r="AQ22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4444,13 +4511,13 @@
         <v>18</v>
       </c>
       <c r="AX22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY22" t="n">
         <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3</v>
+        <v>0.294</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J23" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N23" t="n">
         <v>0.359</v>
@@ -4524,46 +4591,46 @@
         <v>14.5</v>
       </c>
       <c r="P23" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="Q23" t="n">
         <v>0.733</v>
       </c>
       <c r="R23" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="U23" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA23" t="n">
         <v>18.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.1</v>
+        <v>-6.4</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4578,16 +4645,16 @@
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>20</v>
@@ -4602,7 +4669,7 @@
         <v>29</v>
       </c>
       <c r="AP23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ23" t="n">
         <v>26</v>
@@ -4611,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
@@ -4620,16 +4687,16 @@
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>22</v>
@@ -4638,7 +4705,7 @@
         <v>28</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
         <v>39</v>
       </c>
       <c r="G24" t="n">
-        <v>0.22</v>
+        <v>0.204</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,40 +4755,40 @@
         <v>33</v>
       </c>
       <c r="J24" t="n">
-        <v>80.5</v>
+        <v>80.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0.41</v>
+        <v>0.409</v>
       </c>
       <c r="L24" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M24" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="N24" t="n">
-        <v>0.306</v>
+        <v>0.303</v>
       </c>
       <c r="O24" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="P24" t="n">
-        <v>24.1</v>
+        <v>23.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="R24" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S24" t="n">
-        <v>30.3</v>
+        <v>30.1</v>
       </c>
       <c r="T24" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="U24" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V24" t="n">
         <v>18.5</v>
@@ -4733,34 +4800,34 @@
         <v>6.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>89.8</v>
+        <v>89.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>-11.2</v>
+        <v>-11.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
       </c>
       <c r="AF24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4772,19 +4839,19 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AP24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4796,10 +4863,10 @@
         <v>27</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4811,13 +4878,13 @@
         <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
         <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4957,7 +5024,7 @@
         <v>6</v>
       </c>
       <c r="AM25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN25" t="n">
         <v>10</v>
@@ -4975,7 +5042,7 @@
         <v>16</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
         <v>18</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" t="n">
         <v>16</v>
       </c>
       <c r="G26" t="n">
-        <v>0.673</v>
+        <v>0.667</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5052,28 +5119,28 @@
         <v>38.4</v>
       </c>
       <c r="J26" t="n">
-        <v>86.3</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K26" t="n">
         <v>0.444</v>
       </c>
       <c r="L26" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="M26" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O26" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="P26" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.79</v>
+        <v>0.793</v>
       </c>
       <c r="R26" t="n">
         <v>10.9</v>
@@ -5085,7 +5152,7 @@
         <v>45.5</v>
       </c>
       <c r="U26" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V26" t="n">
         <v>13.8</v>
@@ -5103,28 +5170,28 @@
         <v>19</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB26" t="n">
         <v>102.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
         <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
@@ -5157,7 +5224,7 @@
         <v>14</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT26" t="n">
         <v>4</v>
@@ -5169,7 +5236,7 @@
         <v>8</v>
       </c>
       <c r="AW26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX26" t="n">
         <v>9</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -5216,19 +5283,19 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" t="n">
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>0.362</v>
+        <v>0.37</v>
       </c>
       <c r="H27" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I27" t="n">
         <v>36.4</v>
@@ -5246,25 +5313,25 @@
         <v>15.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.332</v>
+        <v>0.33</v>
       </c>
       <c r="O27" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="P27" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="Q27" t="n">
         <v>0.782</v>
       </c>
       <c r="R27" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S27" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="T27" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="U27" t="n">
         <v>19.4</v>
@@ -5282,19 +5349,19 @@
         <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA27" t="n">
         <v>24.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3.4</v>
+        <v>-2.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5309,7 +5376,7 @@
         <v>5</v>
       </c>
       <c r="AI27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
@@ -5366,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC27" t="n">
         <v>22</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -5398,73 +5465,73 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
         <v>18</v>
       </c>
       <c r="G28" t="n">
-        <v>0.617</v>
+        <v>0.625</v>
       </c>
       <c r="H28" t="n">
-        <v>49</v>
+        <v>48.9</v>
       </c>
       <c r="I28" t="n">
         <v>37.8</v>
       </c>
       <c r="J28" t="n">
-        <v>83.2</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.454</v>
+        <v>0.456</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="O28" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="P28" t="n">
         <v>22.4</v>
       </c>
-      <c r="N28" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="O28" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="P28" t="n">
-        <v>22.5</v>
-      </c>
       <c r="Q28" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R28" t="n">
         <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
         <v>24.1</v>
       </c>
       <c r="V28" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W28" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA28" t="n">
         <v>20.2</v>
@@ -5473,13 +5540,13 @@
         <v>101</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF28" t="n">
         <v>9</v>
@@ -5497,7 +5564,7 @@
         <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5509,13 +5576,13 @@
         <v>7</v>
       </c>
       <c r="AO28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5524,13 +5591,13 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
         <v>14</v>
@@ -5548,10 +5615,10 @@
         <v>17</v>
       </c>
       <c r="BB28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -5679,7 +5746,7 @@
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5688,7 +5755,7 @@
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5715,7 +5782,7 @@
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX29" t="n">
         <v>19</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" t="n">
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>0.354</v>
+        <v>0.362</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J30" t="n">
-        <v>79.5</v>
+        <v>79.3</v>
       </c>
       <c r="K30" t="n">
         <v>0.451</v>
@@ -5789,10 +5856,10 @@
         <v>7.2</v>
       </c>
       <c r="M30" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O30" t="n">
         <v>17.1</v>
@@ -5801,13 +5868,13 @@
         <v>23</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R30" t="n">
         <v>11.7</v>
       </c>
       <c r="S30" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T30" t="n">
         <v>42.7</v>
@@ -5816,7 +5883,7 @@
         <v>20.3</v>
       </c>
       <c r="V30" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W30" t="n">
         <v>6.9</v>
@@ -5828,28 +5895,28 @@
         <v>4.7</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE30" t="n">
         <v>22</v>
       </c>
       <c r="AF30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5873,34 +5940,34 @@
         <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP30" t="n">
         <v>16</v>
       </c>
       <c r="AQ30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT30" t="n">
         <v>17</v>
       </c>
       <c r="AU30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV30" t="n">
         <v>26</v>
       </c>
       <c r="AW30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
         <v>13</v>
@@ -5912,7 +5979,7 @@
         <v>24</v>
       </c>
       <c r="BB30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC30" t="n">
         <v>21</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
@@ -6058,7 +6125,7 @@
         <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
         <v>22</v>
@@ -6070,16 +6137,16 @@
         <v>9</v>
       </c>
       <c r="AT31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU31" t="n">
         <v>5</v>
       </c>
       <c r="AV31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX31" t="n">
         <v>13</v>
@@ -6088,10 +6155,10 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-3-2014-15</t>
+          <t>2015-02-03</t>
         </is>
       </c>
     </row>
